--- a/biology/Médecine/Docteur_Lisa/Docteur_Lisa.xlsx
+++ b/biology/Médecine/Docteur_Lisa/Docteur_Lisa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Docteur Lisa (titre original : Доктор Лиза, Doktor Lisa) est un film russe réalisé par Oxana Karas, sorti en 2020[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Docteur Lisa (titre original : Доктор Лиза, Doktor Lisa) est un film russe réalisé par Oxana Karas, sorti en 2020,.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Docteur Lisa
 Titre original : Доктор Лиза, Doktor Lisa
@@ -581,10 +597,49 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Récompenses
-33e cérémonie des Nika : meilleure actrice pour Tchoulpan Khamatova, meilleure actrice dans un second rôle pour Tatiana Doguileva
-Nominations
-19e cérémonie des Aigles d'or : meilleure musique
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>33e cérémonie des Nika : meilleure actrice pour Tchoulpan Khamatova, meilleure actrice dans un second rôle pour Tatiana Doguileva</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Docteur_Lisa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Docteur_Lisa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distinction</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>19e cérémonie des Aigles d'or : meilleure musique
 33e cérémonie des Nika : meilleur film, meilleur acteur pour Andreï Bourkovski, meilleure musique</t>
         </is>
       </c>
